--- a/Sources/FireZones.xlsx
+++ b/Sources/FireZones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\safetyshift910\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azirella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFE83C-E47C-4EE0-B7F7-D0536554B9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93140C6A-CB42-4278-AE02-F7CFC3442E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{4C806FF0-6CBB-4D2F-9055-174ACCC7D997}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C806FF0-6CBB-4D2F-9055-174ACCC7D997}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"> FIRE ZONE </t>
   </si>
@@ -36,72 +36,30 @@
     <t xml:space="preserve"> U100-1 PH9 </t>
   </si>
   <si>
-    <t xml:space="preserve"> U100-2 PH10 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 03A </t>
   </si>
   <si>
     <t xml:space="preserve"> U101 / 104 / 105 (GAS TRAIN 1 ) </t>
   </si>
   <si>
-    <t xml:space="preserve"> 03B </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U101 / 104 / 105 (GAS TRAIN 2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04A </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U101 / 104 / 105 (GAS TRAIN 3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04B </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U101 / 104 / 105 (GAS TRAIN 4) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U102 (MEG REGEN. &amp; INJECT. &amp; STORAGE) </t>
   </si>
   <si>
     <t xml:space="preserve"> U100-1 / 103-1 (COND. STABIL. PH9) </t>
   </si>
   <si>
-    <t xml:space="preserve"> U100-2 / 103-2 (STABILIZATION. PH10) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U106 (EXPORT GAS COMPRESS &amp; METERING) </t>
   </si>
   <si>
     <t xml:space="preserve"> U107-1 / 116-1 (NGL FRACT &amp; ETHANE TREAT) </t>
   </si>
   <si>
-    <t xml:space="preserve"> U107-2 / 116-2 (NGL FRACT &amp; ETHANE TREAT) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U108(TRAIN1&amp;2&amp;5) / 144 (SULFUR RECOVERY) </t>
   </si>
   <si>
-    <t xml:space="preserve"> U108(TRAIN3&amp;4)(SULFUR RECOVERY) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U110 (BACK UP STABILIZATION) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U111 (PROPAN REFRIG .TRAIN 1&amp;2&amp;3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U111 (PROPAN REFRIG .TRAIN 4&amp;5&amp;6) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U113-1 / 114-1 / 115-1 (CAUSTIC REG) </t>
   </si>
   <si>
-    <t xml:space="preserve"> U113-2 / 114-2 / 115-2 (CAUSTIC REG) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U109 / 122 (SOUR WATER STRIPER-FUEL GAS) </t>
   </si>
   <si>
@@ -111,15 +69,9 @@
     <t xml:space="preserve"> U126 / 127 / 128 / 132 ( WATER TREATMENT AREA) </t>
   </si>
   <si>
-    <t xml:space="preserve"> U125 / 131 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U129 </t>
   </si>
   <si>
-    <t xml:space="preserve"> U130 (FIRE WATER AREA) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U140 / 142 (FLARE &amp; BURNPIT) </t>
   </si>
   <si>
@@ -141,73 +93,34 @@
     <t xml:space="preserve"> U147 / 148 </t>
   </si>
   <si>
-    <t xml:space="preserve"> ADMIN / GUARD / CLINIC </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WAREHOUSE / WORKSHOP / NICC </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FIRE FIGHTING STATION </t>
-  </si>
-  <si>
     <t xml:space="preserve"> U161 / 162 / CB / LAB / ITR0 </t>
   </si>
   <si>
     <t xml:space="preserve"> U176 / SS#1 / ITR3 &amp; 4 </t>
   </si>
   <si>
-    <t xml:space="preserve"> SS#2 / ITR1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SS#3 / ITR2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SS#4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U176 / SS#5 / ITR5 &amp; 6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U176 / SS#6 / ITR7 &amp; 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U176 / SS#7 / ITR9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SS#9 / ITR10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAIN GATE HOUSE (GT1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SECONDARY GATE HOUSE (GT2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THIRD GAT HOUSE (GT3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SS#8 / ITR11 </t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>31/32/33/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADMIN / GUARD / CLINIC  /  WAREHOUSE / WORKSHOP / NICC  /  FIRE FIGHTING STATION  /  U161 / 162 / CB / LAB / ITR0  /  FIRE FIGHTING STATION </t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -218,7 +131,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -264,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,11 +189,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -357,11 +279,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D0E40B9-9534-44EF-8C83-881277C748D7}" name="Table1" displayName="Table1" ref="A1:B49" totalsRowShown="0">
-  <autoFilter ref="A1:B49" xr:uid="{182A69A8-8207-46CA-89BF-B39537F59B95}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BDF5E642-0CF1-4667-A99A-018A86ABA40F}" name=" FIRE ZONE " dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DF325E2A-A680-4AAB-8C94-A97FD7ED0429}" name=" SUB SISTEM NAME " dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D0E40B9-9534-44EF-8C83-881277C748D7}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23" xr:uid="{182A69A8-8207-46CA-89BF-B39537F59B95}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BDF5E642-0CF1-4667-A99A-018A86ABA40F}" name=" FIRE ZONE " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DF325E2A-A680-4AAB-8C94-A97FD7ED0429}" name=" SUB SISTEM NAME " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3730C491-E96A-4847-A0CF-ED2024FDECB5}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,408 +589,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF5227-DC4A-4348-A297-50D94A02A06E}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="77.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C2" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 01 ) -  U100-1 PH9 </v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">(  03A  ) -  U101 / 104 / 105 (GAS TRAIN 1 ) </v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C4" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 05 ) -  U102 (MEG REGEN. &amp; INJECT. &amp; STORAGE) </v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 06 ) -  U100-1 / 103-1 (COND. STABIL. PH9) </v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C6" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 08 ) -  U106 (EXPORT GAS COMPRESS &amp; METERING) </v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C7" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 09 ) -  U107-1 / 116-1 (NGL FRACT &amp; ETHANE TREAT) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C8" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 11 ) -  U108(TRAIN1&amp;2&amp;5) / 144 (SULFUR RECOVERY) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 16 ) -  U113-1 / 114-1 / 115-1 (CAUSTIC REG) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C10" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 18 ) -  U109 / 122 (SOUR WATER STRIPER-FUEL GAS) </v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C11" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 19 ) -  U121 / 123 /124 (STEAM GEN.IA/SA-N2) </v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C12" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 20 ) -  U126 / 127 / 128 / 132 ( WATER TREATMENT AREA) </v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C13" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 22 ) -  U129 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C14" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 24 ) -  U140 / 142 (FLARE &amp; BURNPIT) </v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C15" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 25 ) -  U140 / 141 / 142(FLARE &amp; BLOW DOWN) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C16" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 26 ) -  U143 (OFF SPEC.CONDENSATE STG TANK) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C17" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 27 ) -  U143 (UG SHOP-CONDENSATE STORAGE EXPORT) </v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C18" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 28 ) -  U145 / 146 (AMINE TANKS &amp; C3 REFG.STG.) </v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C19" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 29 ) -  U131 / 146 (DISEL STG. &amp; CHEM. STG.) </v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C20" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 30 ) -  U147 / 148 </v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 31/32/33/ ) -  ADMIN / GUARD / CLINIC  /  WAREHOUSE / WORKSHOP / NICC  /  FIRE FIGHTING STATION  /  U161 / 162 / CB / LAB / ITR0  /  FIRE FIGHTING STATION </v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C22" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 34 ) -  U161 / 162 / CB / LAB / ITR0 </v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>39</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>40</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>41</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>42</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>43</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>44</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>45</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>46</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>53</v>
+      <c r="C23" t="str">
+        <f>"( "&amp;Table1[[#This Row],[ FIRE ZONE ]]&amp;" ) - "&amp; Table1[[#This Row],[ SUB SISTEM NAME ]]</f>
+        <v xml:space="preserve">( 35 ) -  U176 / SS#1 / ITR3 &amp; 4 </v>
       </c>
     </row>
   </sheetData>
